--- a/Salidas.xlsx
+++ b/Salidas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="Rb8e6424d153640d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R2735436767474e1c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -133,31 +133,31 @@
     <x:t xml:space="preserve">1M1_1A</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">%Q1.5</x:t>
+    <x:t xml:space="preserve">%Q2.0</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1M2_1A</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">%Q1.6</x:t>
+    <x:t xml:space="preserve">%Q2.1</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">0V</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">%Q1.7</x:t>
+    <x:t xml:space="preserve">%Q2.2</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">KM1_avance</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">%Q2.0</x:t>
+    <x:t xml:space="preserve">%Q2.3</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">KM2_retroceso</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">%Q2.1</x:t>
+    <x:t xml:space="preserve">%Q2.4</x:t>
   </x:si>
 </x:sst>
 </file>
